--- a/Jogos_da_Semana_FlashScore_2025-02-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-05.xlsx
@@ -696,10 +696,10 @@
         <v>11</v>
       </c>
       <c r="O2" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P2" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q2" t="n">
         <v>1.95</v>
@@ -726,7 +726,7 @@
         <v>1.91</v>
       </c>
       <c r="Y2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z2" t="n">
         <v>21</v>
@@ -744,7 +744,7 @@
         <v>41</v>
       </c>
       <c r="AE2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF2" t="n">
         <v>7</v>
@@ -756,7 +756,7 @@
         <v>51</v>
       </c>
       <c r="AI2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AJ2" t="n">
         <v>9</v>
@@ -809,13 +809,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I3" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="J3" t="n">
         <v>5.5</v>
@@ -839,16 +839,16 @@
         <v>4</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="R3" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S3" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="T3" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U3" t="n">
         <v>1.33</v>
@@ -866,13 +866,13 @@
         <v>17</v>
       </c>
       <c r="Z3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA3" t="n">
         <v>19</v>
       </c>
       <c r="AB3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AC3" t="n">
         <v>41</v>
@@ -1619,22 +1619,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="I9" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J9" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="K9" t="n">
         <v>2.75</v>
       </c>
       <c r="L9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M9" t="n">
         <v>1.02</v>
@@ -1667,13 +1667,13 @@
         <v>3.75</v>
       </c>
       <c r="W9" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="X9" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Y9" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z9" t="n">
         <v>7.5</v>
@@ -1682,7 +1682,7 @@
         <v>9</v>
       </c>
       <c r="AB9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC9" t="n">
         <v>10</v>
@@ -1721,7 +1721,7 @@
         <v>41</v>
       </c>
       <c r="AO9" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-02-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-05.xlsx
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="H2" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="J2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K2" t="n">
         <v>2.2</v>
       </c>
       <c r="L2" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
@@ -696,10 +696,10 @@
         <v>11</v>
       </c>
       <c r="O2" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P2" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q2" t="n">
         <v>1.95</v>
@@ -729,7 +729,7 @@
         <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA2" t="n">
         <v>13</v>
@@ -738,16 +738,16 @@
         <v>41</v>
       </c>
       <c r="AC2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD2" t="n">
         <v>34</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>41</v>
       </c>
       <c r="AE2" t="n">
         <v>11</v>
       </c>
       <c r="AF2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG2" t="n">
         <v>15</v>
@@ -759,13 +759,13 @@
         <v>7.5</v>
       </c>
       <c r="AJ2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK2" t="n">
         <v>8.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM2" t="n">
         <v>15</v>
@@ -809,10 +809,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="H3" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I3" t="n">
         <v>1.57</v>
@@ -821,49 +821,49 @@
         <v>5.5</v>
       </c>
       <c r="K3" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L3" t="n">
         <v>2.1</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O3" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R3" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S3" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T3" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U3" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="V3" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W3" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="X3" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Y3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z3" t="n">
         <v>29</v>
@@ -872,7 +872,7 @@
         <v>19</v>
       </c>
       <c r="AB3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AC3" t="n">
         <v>41</v>
@@ -881,22 +881,22 @@
         <v>41</v>
       </c>
       <c r="AE3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF3" t="n">
         <v>7.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH3" t="n">
         <v>51</v>
       </c>
       <c r="AI3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AK3" t="n">
         <v>8.5</v>
@@ -905,13 +905,13 @@
         <v>11</v>
       </c>
       <c r="AM3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO3" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4">
@@ -1238,10 +1238,10 @@
         <v>4</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R6" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S6" t="n">
         <v>2.75</v>
@@ -1655,10 +1655,10 @@
         <v>2.7</v>
       </c>
       <c r="S9" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T9" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="U9" t="n">
         <v>1.25</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO9"/>
+  <dimension ref="A1:AQ9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -639,6 +639,16 @@
           <t>Odd_CS_4-4</t>
         </is>
       </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Over3_FT</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Under3_FT</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -672,22 +682,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I2" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="J2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K2" t="n">
         <v>2.2</v>
       </c>
       <c r="L2" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
@@ -726,10 +736,10 @@
         <v>1.91</v>
       </c>
       <c r="Y2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA2" t="n">
         <v>13</v>
@@ -738,13 +748,13 @@
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF2" t="n">
         <v>6.5</v>
@@ -759,13 +769,13 @@
         <v>7.5</v>
       </c>
       <c r="AJ2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK2" t="n">
         <v>8.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM2" t="n">
         <v>15</v>
@@ -776,6 +786,8 @@
       <c r="AO2" t="n">
         <v>251</v>
       </c>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -818,7 +830,7 @@
         <v>1.57</v>
       </c>
       <c r="J3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="K3" t="n">
         <v>2.3</v>
@@ -839,10 +851,10 @@
         <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R3" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S3" t="n">
         <v>3</v>
@@ -913,6 +925,8 @@
       <c r="AO3" t="n">
         <v>251</v>
       </c>
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -946,88 +960,88 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="H4" t="n">
         <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K4" t="n">
         <v>2.4</v>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O4" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="R4" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="S4" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T4" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="U4" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V4" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W4" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="X4" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA4" t="n">
         <v>8.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC4" t="n">
         <v>12</v>
       </c>
       <c r="AD4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF4" t="n">
         <v>8.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI4" t="n">
         <v>17</v>
@@ -1036,10 +1050,10 @@
         <v>34</v>
       </c>
       <c r="AK4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM4" t="n">
         <v>41</v>
@@ -1048,7 +1062,13 @@
         <v>41</v>
       </c>
       <c r="AO4" t="n">
-        <v>251</v>
+        <v>201</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>1.8</v>
       </c>
     </row>
     <row r="5">
@@ -1175,6 +1195,8 @@
       <c r="AO5" t="n">
         <v>101</v>
       </c>
+      <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1312,6 +1334,8 @@
       <c r="AO6" t="n">
         <v>151</v>
       </c>
+      <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1449,6 +1473,8 @@
       <c r="AO7" t="n">
         <v>301</v>
       </c>
+      <c r="AP7" t="inlineStr"/>
+      <c r="AQ7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1586,6 +1612,8 @@
       <c r="AO8" t="n">
         <v>126</v>
       </c>
+      <c r="AP8" t="inlineStr"/>
+      <c r="AQ8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1723,6 +1751,8 @@
       <c r="AO9" t="n">
         <v>251</v>
       </c>
+      <c r="AP9" t="inlineStr"/>
+      <c r="AQ9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-05.xlsx
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H2" t="n">
         <v>3.6</v>
       </c>
       <c r="I2" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="J2" t="n">
         <v>4.5</v>
@@ -706,16 +706,16 @@
         <v>11</v>
       </c>
       <c r="O2" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P2" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R2" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S2" t="n">
         <v>3.4</v>
@@ -754,10 +754,10 @@
         <v>41</v>
       </c>
       <c r="AE2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG2" t="n">
         <v>15</v>
@@ -769,7 +769,7 @@
         <v>7.5</v>
       </c>
       <c r="AJ2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK2" t="n">
         <v>8.5</v>
@@ -960,22 +960,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I4" t="n">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="J4" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
         <v>1.03</v>
@@ -990,10 +990,10 @@
         <v>4.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R4" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S4" t="n">
         <v>2.5</v>
@@ -1029,7 +1029,7 @@
         <v>12</v>
       </c>
       <c r="AD4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE4" t="n">
         <v>15</v>
@@ -1038,22 +1038,22 @@
         <v>8.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ4" t="n">
         <v>34</v>
       </c>
       <c r="AK4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM4" t="n">
         <v>41</v>
@@ -1065,10 +1065,10 @@
         <v>201</v>
       </c>
       <c r="AP4" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="5">
@@ -1381,7 +1381,7 @@
         <v>1.36</v>
       </c>
       <c r="K7" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L7" t="n">
         <v>13</v>
@@ -1393,10 +1393,10 @@
         <v>26</v>
       </c>
       <c r="O7" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="P7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q7" t="n">
         <v>1.25</v>
@@ -1417,10 +1417,10 @@
         <v>5.5</v>
       </c>
       <c r="W7" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X7" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Y7" t="n">
         <v>15</v>
@@ -1456,7 +1456,7 @@
         <v>51</v>
       </c>
       <c r="AJ7" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AK7" t="n">
         <v>51</v>
@@ -1465,10 +1465,10 @@
         <v>351</v>
       </c>
       <c r="AM7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AN7" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AO7" t="n">
         <v>301</v>
@@ -1538,10 +1538,10 @@
         <v>4.33</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R8" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S8" t="n">
         <v>2.63</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-05.xlsx
@@ -824,19 +824,19 @@
         <v>6</v>
       </c>
       <c r="H3" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I3" t="n">
         <v>1.57</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="K3" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
@@ -851,16 +851,16 @@
         <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R3" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S3" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T3" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U3" t="n">
         <v>1.36</v>
@@ -884,7 +884,7 @@
         <v>19</v>
       </c>
       <c r="AB3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AC3" t="n">
         <v>41</v>
@@ -893,7 +893,7 @@
         <v>41</v>
       </c>
       <c r="AE3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF3" t="n">
         <v>7.5</v>
@@ -914,7 +914,7 @@
         <v>8.5</v>
       </c>
       <c r="AL3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM3" t="n">
         <v>13</v>
@@ -923,7 +923,7 @@
         <v>26</v>
       </c>
       <c r="AO3" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AP3" t="inlineStr"/>
       <c r="AQ3" t="inlineStr"/>
@@ -960,46 +960,46 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="H4" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I4" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J4" t="n">
         <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L4" t="n">
         <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O4" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P4" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="R4" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S4" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="T4" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U4" t="n">
         <v>1.3</v>
@@ -1008,16 +1008,16 @@
         <v>3.4</v>
       </c>
       <c r="W4" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="X4" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA4" t="n">
         <v>8.5</v>
@@ -1032,7 +1032,7 @@
         <v>23</v>
       </c>
       <c r="AE4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF4" t="n">
         <v>8.5</v>
@@ -1065,10 +1065,10 @@
         <v>201</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="5">
@@ -1103,38 +1103,38 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="H5" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="I5" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="J5" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="K5" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="L5" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="n">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="R5" t="n">
-        <v>3.45</v>
+        <v>3.9</v>
       </c>
       <c r="S5" t="n">
-        <v>1.73</v>
+        <v>1.55</v>
       </c>
       <c r="T5" t="n">
-        <v>2.04</v>
+        <v>2.15</v>
       </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
@@ -1145,43 +1145,43 @@
         <v>1.41</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="Z5" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB5" t="n">
         <v>4.9</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AC5" t="n">
         <v>12</v>
       </c>
-      <c r="AB5" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>10</v>
-      </c>
       <c r="AD5" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AE5" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AF5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG5" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AH5" t="n">
-        <v>101</v>
+        <v>400</v>
       </c>
       <c r="AI5" t="n">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="AJ5" t="n">
-        <v>101</v>
+        <v>500</v>
       </c>
       <c r="AK5" t="n">
-        <v>101</v>
+        <v>250</v>
       </c>
       <c r="AL5" t="n">
         <v>101</v>
@@ -1260,10 +1260,10 @@
         <v>4</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R6" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S6" t="n">
         <v>2.75</v>
@@ -1508,22 +1508,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H8" t="n">
         <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="J8" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K8" t="n">
         <v>2.25</v>
       </c>
       <c r="L8" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
@@ -1538,10 +1538,10 @@
         <v>4.33</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R8" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S8" t="n">
         <v>2.63</v>
@@ -1565,7 +1565,7 @@
         <v>11</v>
       </c>
       <c r="Z8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA8" t="n">
         <v>10</v>
@@ -1574,10 +1574,10 @@
         <v>26</v>
       </c>
       <c r="AC8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE8" t="n">
         <v>13</v>
@@ -1595,7 +1595,7 @@
         <v>11</v>
       </c>
       <c r="AJ8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK8" t="n">
         <v>10</v>
@@ -1604,10 +1604,10 @@
         <v>26</v>
       </c>
       <c r="AM8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO8" t="n">
         <v>126</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-05.xlsx
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="H4" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="I4" t="n">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="K4" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O4" t="n">
         <v>1.2</v>
@@ -990,10 +990,10 @@
         <v>4.33</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R4" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S4" t="n">
         <v>2.63</v>
@@ -1002,28 +1002,28 @@
         <v>1.44</v>
       </c>
       <c r="U4" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="V4" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="W4" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="X4" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Y4" t="n">
         <v>8</v>
       </c>
       <c r="Z4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA4" t="n">
         <v>8.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC4" t="n">
         <v>12</v>
@@ -1035,25 +1035,25 @@
         <v>13</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH4" t="n">
         <v>51</v>
       </c>
       <c r="AI4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM4" t="n">
         <v>41</v>
@@ -1248,13 +1248,13 @@
         <v>4.33</v>
       </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
         <v>13</v>
       </c>
       <c r="O6" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P6" t="n">
         <v>4</v>
@@ -1269,7 +1269,7 @@
         <v>2.75</v>
       </c>
       <c r="T6" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="U6" t="n">
         <v>1.36</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-05.xlsx
@@ -706,16 +706,16 @@
         <v>11</v>
       </c>
       <c r="O2" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P2" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R2" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S2" t="n">
         <v>3.4</v>
@@ -730,10 +730,10 @@
         <v>2.75</v>
       </c>
       <c r="W2" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="X2" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="Y2" t="n">
         <v>12</v>
@@ -869,10 +869,10 @@
         <v>3</v>
       </c>
       <c r="W3" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="X3" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Y3" t="n">
         <v>15</v>
@@ -960,46 +960,46 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="H4" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I4" t="n">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="J4" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K4" t="n">
         <v>2.38</v>
       </c>
       <c r="L4" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O4" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P4" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R4" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="S4" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="T4" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U4" t="n">
         <v>1.33</v>
@@ -1017,7 +1017,7 @@
         <v>8</v>
       </c>
       <c r="Z4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA4" t="n">
         <v>8.5</v>
@@ -1026,7 +1026,7 @@
         <v>12</v>
       </c>
       <c r="AC4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD4" t="n">
         <v>23</v>
@@ -1044,13 +1044,13 @@
         <v>51</v>
       </c>
       <c r="AI4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AK4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL4" t="n">
         <v>51</v>
@@ -1103,38 +1103,38 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="H5" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="I5" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="J5" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="K5" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="L5" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="R5" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="S5" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="T5" t="n">
-        <v>2.15</v>
+        <v>2.02</v>
       </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
@@ -1145,43 +1145,43 @@
         <v>1.41</v>
       </c>
       <c r="Y5" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="Z5" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="AA5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AB5" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AD5" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AE5" t="n">
         <v>20</v>
       </c>
       <c r="AF5" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AG5" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AH5" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AI5" t="n">
-        <v>175</v>
+        <v>110</v>
       </c>
       <c r="AJ5" t="n">
         <v>500</v>
       </c>
       <c r="AK5" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="AL5" t="n">
         <v>101</v>
@@ -1190,7 +1190,7 @@
         <v>101</v>
       </c>
       <c r="AN5" t="n">
-        <v>101</v>
+        <v>500</v>
       </c>
       <c r="AO5" t="n">
         <v>101</v>
@@ -1230,13 +1230,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="H6" t="n">
         <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="J6" t="n">
         <v>2.5</v>
@@ -1248,13 +1248,13 @@
         <v>4.33</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O6" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P6" t="n">
         <v>4</v>
@@ -1269,7 +1269,7 @@
         <v>2.75</v>
       </c>
       <c r="T6" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="U6" t="n">
         <v>1.36</v>
@@ -1293,7 +1293,7 @@
         <v>8.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC6" t="n">
         <v>15</v>
@@ -1317,10 +1317,10 @@
         <v>13</v>
       </c>
       <c r="AJ6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL6" t="n">
         <v>41</v>
@@ -1393,10 +1393,10 @@
         <v>26</v>
       </c>
       <c r="O7" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="P7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q7" t="n">
         <v>1.25</v>
@@ -1508,22 +1508,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H8" t="n">
         <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J8" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K8" t="n">
         <v>2.25</v>
       </c>
       <c r="L8" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
@@ -1568,10 +1568,10 @@
         <v>15</v>
       </c>
       <c r="AA8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC8" t="n">
         <v>21</v>
@@ -1601,7 +1601,7 @@
         <v>10</v>
       </c>
       <c r="AL8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM8" t="n">
         <v>19</v>
@@ -1647,22 +1647,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="H9" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="I9" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="J9" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="K9" t="n">
         <v>2.75</v>
       </c>
       <c r="L9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="M9" t="n">
         <v>1.02</v>
@@ -1677,10 +1677,10 @@
         <v>6</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R9" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="S9" t="n">
         <v>2</v>
@@ -1689,19 +1689,19 @@
         <v>1.73</v>
       </c>
       <c r="U9" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="V9" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="W9" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="X9" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z9" t="n">
         <v>7.5</v>
@@ -1710,7 +1710,7 @@
         <v>9</v>
       </c>
       <c r="AB9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AC9" t="n">
         <v>10</v>
@@ -1749,7 +1749,7 @@
         <v>41</v>
       </c>
       <c r="AO9" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AP9" t="inlineStr"/>
       <c r="AQ9" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-05.xlsx
@@ -700,28 +700,28 @@
         <v>2.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
         <v>11</v>
       </c>
       <c r="O2" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R2" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S2" t="n">
         <v>3.4</v>
       </c>
       <c r="T2" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U2" t="n">
         <v>1.4</v>
@@ -730,10 +730,10 @@
         <v>2.75</v>
       </c>
       <c r="W2" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="X2" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="Y2" t="n">
         <v>12</v>
@@ -821,13 +821,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="H3" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I3" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="J3" t="n">
         <v>5.5</v>
@@ -839,25 +839,25 @@
         <v>2.2</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
         <v>11</v>
       </c>
       <c r="O3" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P3" t="n">
         <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R3" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S3" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T3" t="n">
         <v>1.33</v>
@@ -869,10 +869,10 @@
         <v>3</v>
       </c>
       <c r="W3" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="X3" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Y3" t="n">
         <v>15</v>
@@ -896,7 +896,7 @@
         <v>10</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG3" t="n">
         <v>17</v>
@@ -960,31 +960,31 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H4" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I4" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K4" t="n">
         <v>2.38</v>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N4" t="n">
         <v>13</v>
       </c>
       <c r="O4" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P4" t="n">
         <v>4</v>
@@ -999,7 +999,7 @@
         <v>2.75</v>
       </c>
       <c r="T4" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="U4" t="n">
         <v>1.33</v>
@@ -1017,7 +1017,7 @@
         <v>8</v>
       </c>
       <c r="Z4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA4" t="n">
         <v>8.5</v>
@@ -1026,7 +1026,7 @@
         <v>12</v>
       </c>
       <c r="AC4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD4" t="n">
         <v>23</v>
@@ -1047,10 +1047,10 @@
         <v>15</v>
       </c>
       <c r="AJ4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AK4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL4" t="n">
         <v>51</v>
@@ -1112,10 +1112,10 @@
         <v>32</v>
       </c>
       <c r="J5" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="K5" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="L5" t="n">
         <v>22</v>
@@ -1125,16 +1125,16 @@
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="R5" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="S5" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T5" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
@@ -1145,37 +1145,37 @@
         <v>1.41</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.25</v>
+        <v>10.25</v>
       </c>
       <c r="Z5" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="AA5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AB5" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="AC5" t="n">
-        <v>11.75</v>
+        <v>10.75</v>
       </c>
       <c r="AD5" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AE5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG5" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AH5" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AI5" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AJ5" t="n">
         <v>500</v>
@@ -1190,7 +1190,7 @@
         <v>101</v>
       </c>
       <c r="AN5" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AO5" t="n">
         <v>101</v>
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="H7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="I7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J7" t="n">
         <v>1.36</v>
       </c>
       <c r="K7" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L7" t="n">
         <v>13</v>
@@ -1417,10 +1417,10 @@
         <v>5.5</v>
       </c>
       <c r="W7" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X7" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Y7" t="n">
         <v>15</v>
@@ -1456,7 +1456,7 @@
         <v>51</v>
       </c>
       <c r="AJ7" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AK7" t="n">
         <v>51</v>
@@ -1465,10 +1465,10 @@
         <v>351</v>
       </c>
       <c r="AM7" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AN7" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AO7" t="n">
         <v>301</v>
@@ -1508,28 +1508,28 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="H8" t="n">
         <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="J8" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K8" t="n">
         <v>2.25</v>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O8" t="n">
         <v>1.2</v>
@@ -1538,10 +1538,10 @@
         <v>4.33</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R8" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S8" t="n">
         <v>2.63</v>
@@ -1565,19 +1565,19 @@
         <v>11</v>
       </c>
       <c r="Z8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE8" t="n">
         <v>13</v>
@@ -1595,19 +1595,19 @@
         <v>11</v>
       </c>
       <c r="AJ8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK8" t="n">
         <v>10</v>
       </c>
       <c r="AL8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO8" t="n">
         <v>126</v>
@@ -1647,82 +1647,82 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="I9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J9" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="K9" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="L9" t="n">
         <v>7.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="O9" t="n">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="P9" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="R9" t="n">
-        <v>2.88</v>
+        <v>2.35</v>
       </c>
       <c r="S9" t="n">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="T9" t="n">
-        <v>1.73</v>
+        <v>1.53</v>
       </c>
       <c r="U9" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="V9" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="W9" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="X9" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Y9" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Z9" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA9" t="n">
         <v>9</v>
       </c>
       <c r="AB9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF9" t="n">
         <v>10</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>12</v>
       </c>
       <c r="AG9" t="n">
         <v>21</v>
@@ -1731,28 +1731,32 @@
         <v>51</v>
       </c>
       <c r="AI9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ9" t="n">
         <v>41</v>
       </c>
       <c r="AK9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL9" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AM9" t="n">
         <v>51</v>
       </c>
       <c r="AN9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AO9" t="n">
-        <v>201</v>
-      </c>
-      <c r="AP9" t="inlineStr"/>
-      <c r="AQ9" t="inlineStr"/>
+        <v>301</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>1.88</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-05.xlsx
@@ -700,28 +700,28 @@
         <v>2.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
         <v>11</v>
       </c>
       <c r="O2" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="P2" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R2" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S2" t="n">
         <v>3.4</v>
       </c>
       <c r="T2" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U2" t="n">
         <v>1.4</v>
@@ -821,43 +821,43 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="H3" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I3" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="J3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="K3" t="n">
         <v>2.25</v>
       </c>
       <c r="L3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
         <v>11</v>
       </c>
       <c r="O3" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="P3" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="R3" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S3" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T3" t="n">
         <v>1.33</v>
@@ -869,10 +869,10 @@
         <v>3</v>
       </c>
       <c r="W3" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="X3" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Y3" t="n">
         <v>15</v>
@@ -884,19 +884,19 @@
         <v>19</v>
       </c>
       <c r="AB3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AC3" t="n">
         <v>41</v>
       </c>
       <c r="AD3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE3" t="n">
         <v>10</v>
       </c>
       <c r="AF3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG3" t="n">
         <v>17</v>
@@ -905,7 +905,7 @@
         <v>51</v>
       </c>
       <c r="AI3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AJ3" t="n">
         <v>7.5</v>
@@ -914,7 +914,7 @@
         <v>8.5</v>
       </c>
       <c r="AL3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM3" t="n">
         <v>13</v>
@@ -978,28 +978,28 @@
         <v>5.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
         <v>13</v>
       </c>
       <c r="O4" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="R4" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="S4" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T4" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="U4" t="n">
         <v>1.33</v>
@@ -1103,38 +1103,38 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="H5" t="n">
-        <v>8.25</v>
+        <v>7.6</v>
       </c>
       <c r="I5" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J5" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="K5" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="L5" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="R5" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="S5" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="T5" t="n">
-        <v>2.12</v>
+        <v>1.98</v>
       </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
@@ -1145,43 +1145,43 @@
         <v>1.41</v>
       </c>
       <c r="Y5" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AC5" t="n">
         <v>10.25</v>
       </c>
-      <c r="Z5" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>10.75</v>
-      </c>
       <c r="AD5" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF5" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AG5" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AH5" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="AI5" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AJ5" t="n">
         <v>500</v>
       </c>
       <c r="AK5" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="AL5" t="n">
         <v>101</v>
@@ -1190,7 +1190,7 @@
         <v>101</v>
       </c>
       <c r="AN5" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="AO5" t="n">
         <v>101</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="I7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J7" t="n">
         <v>1.36</v>
@@ -1417,13 +1417,13 @@
         <v>5.5</v>
       </c>
       <c r="W7" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X7" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Y7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z7" t="n">
         <v>8.5</v>
@@ -1456,7 +1456,7 @@
         <v>51</v>
       </c>
       <c r="AJ7" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AK7" t="n">
         <v>51</v>
@@ -1465,13 +1465,13 @@
         <v>351</v>
       </c>
       <c r="AM7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AN7" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AO7" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AP7" t="inlineStr"/>
       <c r="AQ7" t="inlineStr"/>
@@ -1508,22 +1508,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J8" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L8" t="n">
         <v>3.1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.2</v>
       </c>
       <c r="M8" t="n">
         <v>1.03</v>
@@ -1532,40 +1532,40 @@
         <v>15</v>
       </c>
       <c r="O8" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P8" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R8" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="S8" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T8" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U8" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V8" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W8" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="X8" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA8" t="n">
         <v>10</v>
@@ -1574,25 +1574,25 @@
         <v>26</v>
       </c>
       <c r="AC8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD8" t="n">
         <v>23</v>
       </c>
       <c r="AE8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI8" t="n">
         <v>12</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>11</v>
       </c>
       <c r="AJ8" t="n">
         <v>15</v>
@@ -1604,16 +1604,20 @@
         <v>26</v>
       </c>
       <c r="AM8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO8" t="n">
-        <v>126</v>
-      </c>
-      <c r="AP8" t="inlineStr"/>
-      <c r="AQ8" t="inlineStr"/>
+        <v>101</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>1.83</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1647,19 +1651,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H9" t="n">
         <v>5.5</v>
       </c>
       <c r="I9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J9" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="K9" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L9" t="n">
         <v>7.5</v>
@@ -1671,22 +1675,22 @@
         <v>17</v>
       </c>
       <c r="O9" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P9" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q9" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T9" t="n">
         <v>1.57</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.53</v>
       </c>
       <c r="U9" t="n">
         <v>1.29</v>
@@ -1707,7 +1711,7 @@
         <v>7</v>
       </c>
       <c r="AA9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB9" t="n">
         <v>8.5</v>
@@ -1716,13 +1720,13 @@
         <v>11</v>
       </c>
       <c r="AD9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE9" t="n">
         <v>17</v>
       </c>
       <c r="AF9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG9" t="n">
         <v>21</v>
@@ -1731,16 +1735,16 @@
         <v>51</v>
       </c>
       <c r="AI9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ9" t="n">
         <v>41</v>
       </c>
       <c r="AK9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL9" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AM9" t="n">
         <v>51</v>
@@ -1752,10 +1756,10 @@
         <v>301</v>
       </c>
       <c r="AP9" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AQ9" t="n">
         <v>1.98</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>1.88</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-02-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-05.xlsx
@@ -706,16 +706,16 @@
         <v>11</v>
       </c>
       <c r="O2" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P2" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R2" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S2" t="n">
         <v>3.4</v>
@@ -845,22 +845,22 @@
         <v>11</v>
       </c>
       <c r="O3" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="R3" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="S3" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T3" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U3" t="n">
         <v>1.36</v>
@@ -984,22 +984,22 @@
         <v>13</v>
       </c>
       <c r="O4" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P4" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="R4" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="S4" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T4" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U4" t="n">
         <v>1.33</v>
@@ -1103,38 +1103,38 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="H5" t="n">
-        <v>7.6</v>
+        <v>9.25</v>
       </c>
       <c r="I5" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="J5" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="K5" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="L5" t="n">
-        <v>19.5</v>
+        <v>14.5</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="R5" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="S5" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="T5" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
@@ -1145,28 +1145,28 @@
         <v>1.41</v>
       </c>
       <c r="Y5" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Z5" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB5" t="n">
         <v>5.8</v>
       </c>
-      <c r="AA5" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>5.1</v>
-      </c>
       <c r="AC5" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="AD5" t="n">
         <v>37</v>
       </c>
       <c r="AE5" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AF5" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AG5" t="n">
         <v>45</v>
@@ -1175,22 +1175,22 @@
         <v>175</v>
       </c>
       <c r="AI5" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ5" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="AK5" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="AL5" t="n">
         <v>101</v>
       </c>
       <c r="AM5" t="n">
-        <v>101</v>
+        <v>400</v>
       </c>
       <c r="AN5" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AO5" t="n">
         <v>101</v>
@@ -1381,7 +1381,7 @@
         <v>1.36</v>
       </c>
       <c r="K7" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L7" t="n">
         <v>13</v>
@@ -1390,7 +1390,7 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O7" t="n">
         <v>1.06</v>
@@ -1399,10 +1399,10 @@
         <v>10</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="R7" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="S7" t="n">
         <v>1.62</v>
@@ -1417,13 +1417,13 @@
         <v>5.5</v>
       </c>
       <c r="W7" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X7" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Y7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z7" t="n">
         <v>8.5</v>
@@ -1471,7 +1471,7 @@
         <v>101</v>
       </c>
       <c r="AO7" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AP7" t="inlineStr"/>
       <c r="AQ7" t="inlineStr"/>
@@ -1514,7 +1514,7 @@
         <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J8" t="n">
         <v>3</v>
@@ -1523,46 +1523,46 @@
         <v>2.3</v>
       </c>
       <c r="L8" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O8" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P8" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="R8" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="S8" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="T8" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U8" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="V8" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="W8" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X8" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Y8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z8" t="n">
         <v>15</v>
@@ -1571,10 +1571,10 @@
         <v>10</v>
       </c>
       <c r="AB8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD8" t="n">
         <v>23</v>
@@ -1601,7 +1601,7 @@
         <v>10</v>
       </c>
       <c r="AL8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM8" t="n">
         <v>19</v>
@@ -1610,7 +1610,7 @@
         <v>23</v>
       </c>
       <c r="AO8" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AP8" t="n">
         <v>2.03</v>
@@ -1651,16 +1651,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="H9" t="n">
         <v>5.5</v>
       </c>
       <c r="I9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J9" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="K9" t="n">
         <v>2.63</v>
@@ -1669,10 +1669,10 @@
         <v>7.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O9" t="n">
         <v>1.17</v>
@@ -1705,16 +1705,16 @@
         <v>1.83</v>
       </c>
       <c r="Y9" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z9" t="n">
         <v>7</v>
       </c>
       <c r="AA9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AC9" t="n">
         <v>11</v>
@@ -1735,25 +1735,25 @@
         <v>51</v>
       </c>
       <c r="AI9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ9" t="n">
         <v>41</v>
       </c>
       <c r="AK9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL9" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AM9" t="n">
         <v>51</v>
       </c>
       <c r="AN9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AO9" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AP9" t="n">
         <v>1.88</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-05.xlsx
@@ -712,16 +712,16 @@
         <v>3.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R2" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S2" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="T2" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U2" t="n">
         <v>1.4</v>
@@ -824,16 +824,16 @@
         <v>6.25</v>
       </c>
       <c r="H3" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I3" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="J3" t="n">
         <v>6</v>
       </c>
       <c r="K3" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L3" t="n">
         <v>2.1</v>
@@ -851,16 +851,16 @@
         <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R3" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S3" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T3" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U3" t="n">
         <v>1.36</v>
@@ -869,16 +869,16 @@
         <v>3</v>
       </c>
       <c r="W3" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="X3" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Y3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Z3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA3" t="n">
         <v>19</v>
@@ -890,10 +890,10 @@
         <v>41</v>
       </c>
       <c r="AD3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AE3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF3" t="n">
         <v>7.5</v>
@@ -905,7 +905,7 @@
         <v>51</v>
       </c>
       <c r="AI3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AJ3" t="n">
         <v>7.5</v>
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="H4" t="n">
         <v>3.9</v>
@@ -1008,22 +1008,22 @@
         <v>3.25</v>
       </c>
       <c r="W4" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="X4" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Y4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA4" t="n">
         <v>8.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC4" t="n">
         <v>12</v>
@@ -1038,7 +1038,7 @@
         <v>8</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH4" t="n">
         <v>51</v>
@@ -1062,7 +1062,7 @@
         <v>41</v>
       </c>
       <c r="AO4" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AP4" t="n">
         <v>2.03</v>
@@ -1115,7 +1115,7 @@
         <v>1.27</v>
       </c>
       <c r="K5" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L5" t="n">
         <v>14.5</v>
@@ -1125,10 +1125,10 @@
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="R5" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="S5" t="n">
         <v>1.62</v>
@@ -1148,10 +1148,10 @@
         <v>13</v>
       </c>
       <c r="Z5" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AA5" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AB5" t="n">
         <v>5.8</v>
@@ -1163,7 +1163,7 @@
         <v>37</v>
       </c>
       <c r="AE5" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF5" t="n">
         <v>24</v>
@@ -1190,7 +1190,7 @@
         <v>400</v>
       </c>
       <c r="AN5" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AO5" t="n">
         <v>101</v>
@@ -1390,25 +1390,25 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O7" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="P7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="R7" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="S7" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T7" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="U7" t="n">
         <v>1.14</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ9"/>
+  <dimension ref="A1:AQ8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -821,28 +821,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>6.25</v>
+        <v>5.5</v>
       </c>
       <c r="H3" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="I3" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="K3" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O3" t="n">
         <v>1.25</v>
@@ -851,10 +851,10 @@
         <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R3" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S3" t="n">
         <v>3.25</v>
@@ -875,16 +875,16 @@
         <v>1.83</v>
       </c>
       <c r="Y3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA3" t="n">
         <v>17</v>
       </c>
-      <c r="Z3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>19</v>
-      </c>
       <c r="AB3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AC3" t="n">
         <v>41</v>
@@ -893,10 +893,10 @@
         <v>41</v>
       </c>
       <c r="AE3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG3" t="n">
         <v>17</v>
@@ -914,7 +914,7 @@
         <v>8.5</v>
       </c>
       <c r="AL3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM3" t="n">
         <v>13</v>
@@ -923,7 +923,7 @@
         <v>26</v>
       </c>
       <c r="AO3" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AP3" t="inlineStr"/>
       <c r="AQ3" t="inlineStr"/>
@@ -960,22 +960,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="H4" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="I4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L4" t="n">
         <v>5</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.04</v>
@@ -1008,25 +1008,25 @@
         <v>3.25</v>
       </c>
       <c r="W4" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="X4" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Z4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA4" t="n">
         <v>8.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AC4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD4" t="n">
         <v>23</v>
@@ -1035,10 +1035,10 @@
         <v>13</v>
       </c>
       <c r="AF4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH4" t="n">
         <v>51</v>
@@ -1047,10 +1047,10 @@
         <v>15</v>
       </c>
       <c r="AJ4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AK4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL4" t="n">
         <v>51</v>
@@ -1062,7 +1062,7 @@
         <v>41</v>
       </c>
       <c r="AO4" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AP4" t="n">
         <v>2.03</v>
@@ -1201,7 +1201,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>drODCWN0</t>
+          <t>WOvlYWRr</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1211,128 +1211,128 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>SCOTLAND - PREMIERSHIP</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Pachuca</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Club Leon</t>
+          <t>Dundee FC</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.91</v>
+        <v>1.1</v>
       </c>
       <c r="H6" t="n">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="I6" t="n">
-        <v>4.1</v>
+        <v>23</v>
       </c>
       <c r="J6" t="n">
-        <v>2.5</v>
+        <v>1.36</v>
       </c>
       <c r="K6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L6" t="n">
+        <v>13</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P6" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T6" t="n">
         <v>2.25</v>
       </c>
-      <c r="L6" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N6" t="n">
-        <v>12</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P6" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R6" t="n">
+      <c r="U6" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="V6" t="n">
+        <v>5</v>
+      </c>
+      <c r="W6" t="n">
         <v>2</v>
       </c>
-      <c r="S6" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="V6" t="n">
-        <v>3</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.67</v>
-      </c>
       <c r="X6" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="Y6" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z6" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z6" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AA6" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AB6" t="n">
-        <v>17</v>
+        <v>7.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AD6" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AE6" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.5</v>
+        <v>19</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AH6" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AI6" t="n">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="AJ6" t="n">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="AK6" t="n">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="AL6" t="n">
-        <v>41</v>
+        <v>351</v>
       </c>
       <c r="AM6" t="n">
-        <v>29</v>
+        <v>126</v>
       </c>
       <c r="AN6" t="n">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="AO6" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="AP6" t="inlineStr"/>
       <c r="AQ6" t="inlineStr"/>
@@ -1340,7 +1340,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>WOvlYWRr</t>
+          <t>zXuxHraE</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1350,136 +1350,140 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SCOTLAND - PREMIERSHIP</t>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>St. Gallen</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Dundee FC</t>
+          <t>Lugano</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.1</v>
+        <v>2.45</v>
       </c>
       <c r="H7" t="n">
-        <v>9.5</v>
+        <v>3.5</v>
       </c>
       <c r="I7" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N7" t="n">
+        <v>15</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB7" t="n">
         <v>23</v>
       </c>
-      <c r="J7" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L7" t="n">
-        <v>13</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N7" t="n">
-        <v>26</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="P7" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="R7" t="n">
-        <v>4</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="V7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="X7" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Y7" t="n">
+      <c r="AC7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE7" t="n">
         <v>15</v>
       </c>
-      <c r="Z7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AC7" t="n">
+      <c r="AF7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG7" t="n">
         <v>11</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AH7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL7" t="n">
         <v>29</v>
       </c>
-      <c r="AE7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF7" t="n">
+      <c r="AM7" t="n">
         <v>19</v>
       </c>
-      <c r="AG7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>126</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>351</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>151</v>
-      </c>
       <c r="AN7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO7" t="n">
         <v>101</v>
       </c>
-      <c r="AO7" t="n">
-        <v>301</v>
-      </c>
-      <c r="AP7" t="inlineStr"/>
-      <c r="AQ7" t="inlineStr"/>
+      <c r="AP7" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>1.83</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>zXuxHraE</t>
+          <t>2odIdEDa</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1499,267 +1503,124 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>St. Gallen</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>Yverdon</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.45</v>
+        <v>1.33</v>
       </c>
       <c r="H8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="L8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N8" t="n">
+        <v>19</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="V8" t="n">
         <v>3.5</v>
       </c>
-      <c r="I8" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N8" t="n">
-        <v>13</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P8" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V8" t="n">
-        <v>3.25</v>
-      </c>
       <c r="W8" t="n">
-        <v>1.53</v>
+        <v>1.83</v>
       </c>
       <c r="X8" t="n">
-        <v>2.38</v>
+        <v>1.83</v>
       </c>
       <c r="Y8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC8" t="n">
         <v>11</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>19</v>
       </c>
       <c r="AD8" t="n">
         <v>23</v>
       </c>
       <c r="AE8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF8" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AH8" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AI8" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AJ8" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AK8" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AL8" t="n">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="AM8" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="AN8" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AO8" t="n">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.03</v>
+        <v>1.85</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.83</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2odIdEDa</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>05/02/2025</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Young Boys</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Yverdon</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="H9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="I9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="L9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N9" t="n">
-        <v>19</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P9" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="V9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="X9" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>251</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-02-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-05.xlsx
@@ -821,28 +821,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="H3" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I3" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="J3" t="n">
         <v>5.5</v>
       </c>
       <c r="K3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L3" t="n">
         <v>2.25</v>
       </c>
-      <c r="L3" t="n">
-        <v>2.2</v>
-      </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O3" t="n">
         <v>1.25</v>
@@ -851,22 +851,22 @@
         <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R3" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S3" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T3" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U3" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="V3" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W3" t="n">
         <v>1.83</v>
@@ -878,7 +878,7 @@
         <v>15</v>
       </c>
       <c r="Z3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA3" t="n">
         <v>17</v>
@@ -1230,22 +1230,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J6" t="n">
         <v>1.36</v>
       </c>
       <c r="K6" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M6" t="n">
         <v>1.01</v>
@@ -1254,7 +1254,7 @@
         <v>26</v>
       </c>
       <c r="O6" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="P6" t="n">
         <v>9</v>
@@ -1266,34 +1266,34 @@
         <v>4</v>
       </c>
       <c r="S6" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T6" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="U6" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="V6" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="W6" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="X6" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="Y6" t="n">
         <v>13</v>
       </c>
       <c r="Z6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA6" t="n">
         <v>13</v>
       </c>
       <c r="AB6" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AC6" t="n">
         <v>11</v>
@@ -1308,10 +1308,10 @@
         <v>19</v>
       </c>
       <c r="AG6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AH6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI6" t="n">
         <v>51</v>
@@ -1326,13 +1326,13 @@
         <v>351</v>
       </c>
       <c r="AM6" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AN6" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AO6" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AP6" t="inlineStr"/>
       <c r="AQ6" t="inlineStr"/>
@@ -1387,13 +1387,13 @@
         <v>3.2</v>
       </c>
       <c r="M7" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
         <v>15</v>
       </c>
       <c r="O7" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="P7" t="n">
         <v>4.5</v>
@@ -1408,7 +1408,7 @@
         <v>2.5</v>
       </c>
       <c r="T7" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="U7" t="n">
         <v>1.3</v>
@@ -1515,7 +1515,7 @@
         <v>1.33</v>
       </c>
       <c r="H8" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="I8" t="n">
         <v>7.5</v>
@@ -1524,19 +1524,19 @@
         <v>1.8</v>
       </c>
       <c r="K8" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="L8" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O8" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -1551,7 +1551,7 @@
         <v>2.25</v>
       </c>
       <c r="T8" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="U8" t="n">
         <v>1.29</v>
@@ -1569,10 +1569,10 @@
         <v>8.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB8" t="n">
         <v>9</v>
@@ -1617,10 +1617,10 @@
         <v>251</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="AQ8" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-02-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-05.xlsx
@@ -682,22 +682,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H2" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I2" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="J2" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K2" t="n">
         <v>2.2</v>
       </c>
       <c r="L2" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
@@ -742,7 +742,7 @@
         <v>21</v>
       </c>
       <c r="AA2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="H3" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I3" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="J3" t="n">
         <v>5.5</v>
       </c>
       <c r="K3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L3" t="n">
         <v>2.2</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.25</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
@@ -857,16 +857,16 @@
         <v>1.98</v>
       </c>
       <c r="S3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="V3" t="n">
         <v>3</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2.75</v>
       </c>
       <c r="W3" t="n">
         <v>1.83</v>
@@ -878,7 +878,7 @@
         <v>15</v>
       </c>
       <c r="Z3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA3" t="n">
         <v>17</v>
@@ -893,13 +893,13 @@
         <v>41</v>
       </c>
       <c r="AE3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH3" t="n">
         <v>51</v>
@@ -908,7 +908,7 @@
         <v>7</v>
       </c>
       <c r="AJ3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AK3" t="n">
         <v>8.5</v>
@@ -1230,7 +1230,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="H6" t="n">
         <v>10</v>
@@ -1239,13 +1239,13 @@
         <v>26</v>
       </c>
       <c r="J6" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="K6" t="n">
         <v>3.75</v>
       </c>
       <c r="L6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M6" t="n">
         <v>1.01</v>
@@ -1278,10 +1278,10 @@
         <v>5.5</v>
       </c>
       <c r="W6" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="X6" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="Y6" t="n">
         <v>13</v>
@@ -1296,16 +1296,16 @@
         <v>7</v>
       </c>
       <c r="AC6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG6" t="n">
         <v>34</v>
@@ -1317,13 +1317,13 @@
         <v>51</v>
       </c>
       <c r="AJ6" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AK6" t="n">
         <v>51</v>
       </c>
       <c r="AL6" t="n">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="AM6" t="n">
         <v>151</v>
@@ -1332,7 +1332,7 @@
         <v>101</v>
       </c>
       <c r="AO6" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="AP6" t="inlineStr"/>
       <c r="AQ6" t="inlineStr"/>
@@ -1369,67 +1369,67 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="H7" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K7" t="n">
         <v>2.3</v>
       </c>
       <c r="L7" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O7" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P7" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="R7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X7" t="n">
         <v>2.25</v>
       </c>
-      <c r="S7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X7" t="n">
-        <v>2.5</v>
-      </c>
       <c r="Y7" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Z7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB7" t="n">
         <v>23</v>
@@ -1441,43 +1441,43 @@
         <v>23</v>
       </c>
       <c r="AE7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI7" t="n">
         <v>12</v>
       </c>
       <c r="AJ7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL7" t="n">
         <v>29</v>
       </c>
       <c r="AM7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO7" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AP7" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="8">
@@ -1512,19 +1512,19 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="H8" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J8" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="K8" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L8" t="n">
         <v>7</v>
@@ -1536,22 +1536,22 @@
         <v>17</v>
       </c>
       <c r="O8" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P8" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="R8" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="S8" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T8" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="U8" t="n">
         <v>1.29</v>
@@ -1566,16 +1566,16 @@
         <v>1.83</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z8" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA8" t="n">
         <v>8.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AC8" t="n">
         <v>11</v>
@@ -1584,19 +1584,19 @@
         <v>23</v>
       </c>
       <c r="AE8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF8" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH8" t="n">
         <v>51</v>
       </c>
       <c r="AI8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ8" t="n">
         <v>41</v>
@@ -1617,10 +1617,10 @@
         <v>251</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.88</v>
+        <v>2.03</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-02-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-05.xlsx
@@ -688,7 +688,7 @@
         <v>3.7</v>
       </c>
       <c r="I2" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="J2" t="n">
         <v>4.75</v>
@@ -724,10 +724,10 @@
         <v>1.36</v>
       </c>
       <c r="U2" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="V2" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W2" t="n">
         <v>1.8</v>
@@ -742,7 +742,7 @@
         <v>21</v>
       </c>
       <c r="AA2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
@@ -1233,10 +1233,10 @@
         <v>1.07</v>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J6" t="n">
         <v>1.33</v>
@@ -1278,10 +1278,10 @@
         <v>5.5</v>
       </c>
       <c r="W6" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="X6" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Y6" t="n">
         <v>13</v>
@@ -1290,10 +1290,10 @@
         <v>8</v>
       </c>
       <c r="AA6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AC6" t="n">
         <v>12</v>
@@ -1308,16 +1308,16 @@
         <v>21</v>
       </c>
       <c r="AG6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AH6" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI6" t="n">
         <v>51</v>
       </c>
       <c r="AJ6" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AK6" t="n">
         <v>51</v>
@@ -1326,10 +1326,10 @@
         <v>451</v>
       </c>
       <c r="AM6" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AN6" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AO6" t="n">
         <v>501</v>
@@ -1387,10 +1387,10 @@
         <v>3.4</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O7" t="n">
         <v>1.2</v>
@@ -1399,10 +1399,10 @@
         <v>4.33</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R7" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S7" t="n">
         <v>2.63</v>
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="H8" t="n">
         <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J8" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="K8" t="n">
         <v>2.5</v>
       </c>
       <c r="L8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M8" t="n">
         <v>1.03</v>
@@ -1554,10 +1554,10 @@
         <v>1.5</v>
       </c>
       <c r="U8" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="V8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="W8" t="n">
         <v>1.83</v>
@@ -1599,7 +1599,7 @@
         <v>19</v>
       </c>
       <c r="AJ8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK8" t="n">
         <v>21</v>
